--- a/问题题目.xlsx
+++ b/问题题目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C8A3AB-49D0-4A6C-8CF7-18D8D744CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57899008-719D-4FFF-8927-6A6805A0FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>字符菱形</t>
   </si>
@@ -37,6 +37,13 @@
   </si>
   <si>
     <t>【例2.15】歌手大奖赛</t>
+  </si>
+  <si>
+    <t>【例3.10】简单计算器</t>
+  </si>
+  <si>
+    <t>怎么用printf解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,19 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -400,7 +408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1028</v>
       </c>
@@ -408,12 +416,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2072</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2058</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
